--- a/tradept/Excel/Localization/Main/english/W文字探索地图表_TextExplore_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/W文字探索地图表_TextExplore_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8442B-FE41-49DA-AFA3-DDB73F8AB9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5BFAD-9AD3-4E9C-A2CF-8628303A5248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -84,20 +84,6 @@
 NORMAL_LOSE:你仓皇逃走，远远地听到了身后传来的嘲笑声。</t>
   </si>
   <si>
-    <t>entrance: te encuentras con una mina abandonada cerca de Redstone Keep. Las herramientas rotas están dispersas en el suelo.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: buscas en las cuevas negras. Están completamente en silencio, excepto el viento frío que constantemente sopla en la cara.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El fuego ilumina la oscuridad, y ves la cara salvaje de un mago entre las llamas parpadeantes!
-BOSS_WIN: derrotas a Chakram Jahim el mago y encuentras un botín.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con bandidos!
-NORMAL_WIN: los bandidos se dispersan. Continúa su búsqueda y encuentre algunos suministros.\n\n{0}
-NORMAL_LOSE: huyes de tu vida al sonido de la risa siniestra.</t>
-  </si>
-  <si>
     <t>制陶工坊</t>
   </si>
   <si>
@@ -115,20 +101,6 @@
 NORMAL_LOSE:你仓皇逃走了。</t>
   </si>
   <si>
-    <t>entrance: Encuentra un taller de cerámica que se remonta al Viejo Imperio.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: las piezas de cerámica destrozadas están dispersas por el suelo.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡Un grupo de bandidos te emboscará detrás de algunas estatuas de arcilla!
-BOSS_WIN: derrotas a los bandidos y encuentras un botín.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con bandidos!
-NORMAL_WIN: derrotas a los bandidos. Continúa su búsqueda y encuentre algunos suministros.\n\n{0}
-NORMAL_LOSE: huyes por tu vida.</t>
-  </si>
-  <si>
     <t>花卉乡山洞</t>
   </si>
   <si>
@@ -146,20 +118,6 @@
 NORMAL_LOSE:你仓皇逃走了。</t>
   </si>
   <si>
-    <t>entrance: Esta es una cueva utilizada por la gente de los acantilados de Umbra como refugio durante la Batalla del Sol Negro. Ha sido abandonado durante mucho tiempo.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas por la cueva. Ves varios artículos dejados por los ocupantes anteriores.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: Te sorprende los espíritus de la naturaleza en la cueva abandonada.
-BOSS_WIN: derrotas a los espíritus de la naturaleza y encuentras un botín.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con algunos jabalíes enojados!
-NORMAL_WIN: derrotas a los jabalíes. Continúa su búsqueda y encuentre algunos suministros.\n\n{0}
-NORMAL_LOSE: huyes por tu vida.</t>
-  </si>
-  <si>
     <t>采药雪谷</t>
   </si>
   <si>
@@ -175,20 +133,6 @@
 NORMAL:你遭遇了几头大棕熊！
 NORMAL_WIN:你击败了棕熊，继续搜索了一番，找到了不少物资。\n\n{0}
 NORMAL_LOSE:你仓皇逃走了。</t>
-  </si>
-  <si>
-    <t>entrance: Ves un valle apartado y nevado. Las hierbas medicinales se pueden encontrar aquí, pero deambulando a Ifrit y Beasts mantienen alejada a la mayoría de las personas.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas por el valle contra el viento aullante.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: La risa siniestra resuena en el área. ¡Has estado rodeado de Ifrit!
-BOSS_WIN: derrotas al Ifrit y encuentras un botín.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con algunos osos marrones!
-NORMAL_WIN: derrotas a los osos marrones. Continúa su búsqueda y encuentre algunos suministros.\n\n{0}
-NORMAL_LOSE: huyes por tu vida.</t>
   </si>
   <si>
     <t>秘密集会所</t>
@@ -232,21 +176,6 @@
     </r>
   </si>
   <si>
-    <t>entrance: tropiezas con una cueva apartada. Aquí hay un guerrero con el atuendo del Oryx, un clan aniquilado durante la Batalla del Sol Negro.
-cost: el guerrero lo detiene. Él sugiere una reunión de sobrevivientes de Oryx en el interior, pero le permitirá pasar por {0}.
-noCost: No tienes lo que el guerrero quiere. Él hace un gesto para que te vayas.
-encounter: escuchas voces bajas mientras caminas por la cueva.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSSMAP: Ves la iluminación por delante. Debe ser la salida.
-BOSS: ¡El mago murmura encantamientos y se prepara para lanzarte un hechizo!
-BOSS_WIN: derrotas a Shedan el mago y encuentras un botín.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con los guerreros Oryx!
-NORMAL_WIN: derrotas a los guerreros Oryx. Continúa su búsqueda y encuentre algunos suministros.\n\n{0}
-NORMAL_LOSE: huyes de tu vida mientras los sonidos de la risa siniestra resuenan detrás de ti.</t>
-  </si>
-  <si>
     <t>狂风山谷</t>
   </si>
   <si>
@@ -264,20 +193,6 @@
 NORMAL_LOSE:你仓皇逃离了狂风山谷。</t>
   </si>
   <si>
-    <t>entrance: un valle donde los gala feroz se enfurecen durante todo el año se extiende antes que usted. Pocos hombres son lo suficientemente estúpidos como para proceder, y aún menos caballos todavía.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: Luchas para avanzar en la furiosa vendaval.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: El suelo se sacude. ¡Es una estampida de Centaur!
-BOSS_WIN: derrotas a los centauros.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: te encuentras con algunas pitones.
-NORMAL_WIN: derrotas a las pitones.\n\n{0}
-NORMAL_LOSE: huye del valle.</t>
-  </si>
-  <si>
     <t>林间幻境</t>
   </si>
   <si>
@@ -295,20 +210,6 @@
 NORMAL_LOSE:你仓皇逃离了这里。</t>
   </si>
   <si>
-    <t>entrance: un círculo mágico, dejado por Dryads y Arboreans.
-cost: costará {0} activar el círculo mágico.
-noCost: No hay suficientes suministros para explorar.
-encounter: deambulas por el bosque, escuchando la risa de Dryads de entre los árboles.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: El suelo se sacude. ¡Estás rodeado de arbóeos!
-BOSS_WIN: derrotas a los espíritus de la naturaleza.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con hadas!
-NORMAL_WIN: derrotas a las hadas.\n\n{0}
-NORMAL_LOSE: huyes por tu vida.</t>
-  </si>
-  <si>
     <t>浅溪溶洞</t>
   </si>
   <si>
@@ -326,20 +227,6 @@
 NORMAL_LOSE:你不甘心地从溶洞撤退了。</t>
   </si>
   <si>
-    <t>entrance: una cueva karst cerca de Agadir, ocupada por bahars, víboras y lagartos de veneno.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: avanzas cuidadosamente a través de la cueva. Los únicos sonidos que aquí son los ecos de sus propios pasos y los sonidos del agua de goteo.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡Lagartos venenosos bloquea tu camino!
-BOSS_WIN: derrotas a los lagartos.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con Bahar!
-NORMAL_WIN: derrotas al bahar.\n\n{0}
-NORMAL_LOSE: se retira de la cueva.</t>
-  </si>
-  <si>
     <t>冰窟</t>
   </si>
   <si>
@@ -357,20 +244,6 @@
 NORMAL_LOSE:你无可奈何，从冰窟撤退了。</t>
   </si>
   <si>
-    <t>entrance: una cueva de hielo remota. Encuentras pasos gigantes fuera de la cueva.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: exploras la cueva helada.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: El suelo se sacude. ¡Te encuentras cara a cara con los gigantes!
-BOSS_WIN: derrotas a los gigantes.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: No eres rival para el enemigo y huyes de tu vida.
-NORMAL: ¡Te encuentras con algunas bestias!
-NORMAL_WIN: derrotas a las bestias.\n\n{0}
-NORMAL_LOSE: te ve obligado a retirarse de la cueva.</t>
-  </si>
-  <si>
     <t>古老秘仪之窟</t>
   </si>
   <si>
@@ -388,20 +261,6 @@
 NORMAL_LOSE:你意识到现在还不是自己踏足这里之时，从古老洞窟撤退了。</t>
   </si>
   <si>
-    <t>entrance: una antigua cueva sellada por un mago. Sientes peligro desde adentro.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: avanzas a través de la cueva. Una niebla comienza a obstruir su visión.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: El suelo se sacude. ¡Te encuentras cara a cara con los gigantes que han sido sellados aquí!
-BOSS_WIN: derrotas a los gigantes.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: no estás listo para poner el pie aquí. Te retiras de la cueva.
-NORMAL: ¡Te encuentras con Yetis!
-NORMAL_WIN: derrotas el yetis.\n\n{0}
-NORMAL_LOSE: no está listo para poner el pie aquí. Te retiras de la cueva.</t>
-  </si>
-  <si>
     <t>树宫</t>
   </si>
   <si>
@@ -419,20 +278,6 @@
 NORMAL_LOSE:你害怕惊扰更多的自然之灵，从树宫撤退了。</t>
   </si>
   <si>
-    <t>entrance: un palacio de árboles construido por los espíritus de la naturaleza.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: te mueves lentamente a través de los caminos de vid. De vez en cuando puede escuchar los susurros de Arborees y Dryads.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: los ancianos arbóreos bloquean su camino. Estás rodeado por los espíritus de la naturaleza.
-BOSS_WIN: derrotas a los ancianos arbóreos.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: mejor no molestar a los espíritus de la naturaleza más. Te retiras del lugar.
-NORMAL: ¡Te encuentras con Dryads!
-NORMAL_WIN: derrotas a los Dryads.\n\n{0}
-NORMAL_LOSE: mejor no molestar a los espíritus de la naturaleza más. Te retiras del lugar.</t>
-  </si>
-  <si>
     <t>巨大兽骨洞窟</t>
   </si>
   <si>
@@ -450,20 +295,6 @@
 NORMAL_LOSE:你被巨蜥击败，匆匆忙忙地从兽骨洞窟撤退了。</t>
   </si>
   <si>
-    <t>entrance: los eruditos de Jamal City encontraron huesos gigantes mientras excavaban esta misteriosa cueva en los días del Viejo Imperio. La caída del Viejo Imperio deletreó el final para tales expediciones.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: exploras la cueva y ves huesos gigantes con colores y patrones extraños.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡Después de un destello cegador de luz, ves visiones de gigantes atacándote!
-BOSS_WIN: ¡Derrotas a los gigantes!\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: te apagas frente a la aterradora visión y te despiertas fuera de la cueva.
-NORMAL: ¡Te encuentras con un enjambre de lagartos de veneno gigante!
-NORMAL_WIN: derrotas a los lagartos de veneno.\n\n{0}
-NORMAL_LOSE: no es rival para los escorpiones tóxicos y huye de la cueva.</t>
-  </si>
-  <si>
     <t>巨大熔岩空洞</t>
   </si>
   <si>
@@ -481,20 +312,6 @@
 NORMAL_LOSE:你的力量不足以继续探索熔岩空洞，匆匆地从这里撤退了。</t>
   </si>
   <si>
-    <t>entrance: un agujero masivo que apareció con el sol negro y el ifrit. Todo lo que puedes ver es retumbar la lava, con un camino precario que se enrolla.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: Lava burbujea a tu alrededor mientras avanzas en el camino. El calor es insoportable; Parece que tus armas y armaduras podrían incendiarse en cualquier momento.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: Escuchas una risa siniestra a tu alrededor, y te encuentras rodeado de guerreros de élite.
-BOSS_WIN: derrotas a los guerreros de élite Ifrit.
-BOSS_LOSE: No eres lo suficientemente fuerte como para continuar explorando y te ves obligado a retirarse.
-NORMAL: ¡Te encuentras con Guerreros Ifrit!
-NORMAL_WIN: derrotas a los guerreros Ifrit.\n\n{0}
-NORMAL_LOSE: no es lo suficientemente fuerte como para continuar explorando y se ve obligado a retirarse.</t>
-  </si>
-  <si>
     <t>雪山巨人石阵</t>
   </si>
   <si>
@@ -512,20 +329,6 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了雪山巨人石阵。</t>
   </si>
   <si>
-    <t>entrance: un portal a la casa de los Gigantes en las montañas de Zagros. Está golpeado durante todo el año por Ghel Gales, pero su espeluznante brillo mágico es inconfundible incluso en la tormenta de nieve.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: Caminas sobre el antiguo camino de piedra, rodeado de extraños pilares de piedra.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El suelo se sacude y los guardianes de los Gigantes aparecen ante ti!
-BOSS_WIN: ¡derrotas a los guardianes!\n\n{0}\n\nUsted se queda sin suministros y deja este lugar.
-BOSS_LOSE: Estás noqueado en la batalla y te despiertas fuera de la formación de piedra.
-NORMAL: ¡Te encuentras con gigantes!
-NORMAL_WIN: derrotas a los gigantes.\n\n{0}
-NORMAL_LOSE: estás noqueado en la batalla y te despiertas fuera de la formación de piedra.</t>
-  </si>
-  <si>
     <t>扭曲之塔</t>
   </si>
   <si>
@@ -543,20 +346,6 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
-    <t>entrance: el tiempo y el espacio están distorsionados cerca del portal de Arcana Púrpura. Tus caballos se niegan a ir más allá. Un poder siniestro debe estar contenido con.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No tienes suficientes recursos.
-encounter: Sientes que estás caminando por otra dimensión. Las grietas moradas aparecen en el aire ante ti.
-noDouzhi: Fiesta perdió la moral y renuncias a huir.
-empty: no hay enemigos aquí.
-BOSS: Encuentras un hombre con brazos gigantescos en los alcances más profundos de este espacio. ¡Él carece hacia ti con una sonrisa maliciosa estirada en su rostro!
-BOSS_WIN: ¡Derrotaste a la criatura, pero no estás seguro de si él era humano o algún demonio de otro mundo!
-BOSS_LOSE: Te desmayaste durante la batalla. Te despiertas para encontrarte rescatado por tus compañeros.
-NORMAL: ¡una horda de demonios alados menores se apresura a través de una de las grietas!
-NORMAL_WIN: derrotaste a los demonios.\n\n{0}
-NORMAL_LOSE: te desmayaste durante la batalla. Te despiertas al encontrarlo tú mismo rescatado por tus compañeros.</t>
-  </si>
-  <si>
     <t>魔蛛洞穴</t>
   </si>
   <si>
@@ -574,20 +363,6 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
-    <t>entrance: Esta extraña cueva está llena de telarañas y huesos gigantes, pero los reflejos de joyas brillantes son más que suficientes para atraer a la mayoría de los aventureros.
-cost: debe gastar {0} recursos si desea explorar el área.
-noCost: No tienes suficientes recursos para comenzar a explorar.
-encounter: Entras en la cueva llena de telarañas mientras pisas montones de monedas que se acuñaron durante las dinastías olvidadas.
-noDouzhi: Tu grupo perdió la moral y renunció a huir.
-empty: no hay enemigos aquí.
-BOSS: ¡Una araña gigante, el guardián de estos tesoros, se apresura hacia ti mientras tus compañeros sacan sus armas en defensa!
-BOSS_WIN: Derrotaste a la araña gigante.\n\n{0}\n\nUsted se queda sin recursos de exploración y dejó este lugar.
-BOSS_LOSE: Te desmayaste durante la batalla. Te despiertas al encontrarlo tú mismo rescatado por tus compañeros.
-NORMAL: ¡Te encuentras rodeado de arañas que brillan púrpura con Arcana!
-NORMAL_WIN: derrotaste a las arañas y te vas con una sensación de urgencia renovada.\n\n{0}
-NORMAL_LOSE: te desmayaste durante la batalla. Te despiertas al encontrarlo tú mismo rescatado por tus compañeros.</t>
-  </si>
-  <si>
     <t>炎热蛇穴</t>
   </si>
   <si>
@@ -605,20 +380,6 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
-    <t>entrance: sientes un calor abrasador que irradia de este minas abandonado. Los rumores tienen que el nefrito extrajo a Jade aquí, pero abandonó la operación cuando un nido de víboras tomó los túneles por sí mismos.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: necesita más recursos para comenzar a explorar esta área.
-encounter: te mueves hacia adelante empapado en sudor. El incesante silbido de Vipers envía escalofríos por su columna vertebral.
-noDouzhi: Tu grupo perdió la moral y renunció a huir.
-empty: parece que no hay enemigos aquí.
-BOSS: Altaste la sección más profunda de la mina, solo para encontrar una víbora gigante que protege un montón de jade precioso. ¡El único camino hacia adelante está pavimentado en Snake Blood!
-BOSS_WIN: Derrotaste a la serpiente gigante, reclamaste su jade y te vas lo más rápido posible.
-BOSS_LOSE: Pierdes el conocimiento del veneno. Cuando te despiertas, te resulta rescatado por tus compañeros.
-NORMAL: ¡De repente eres atacado por varias serpientes gigantes!
-NORMAL_WIN: derrotas a las serpientes gigantes.\n\n{0}
-NORMAL_LOSE: pierdes el conocimiento en la batalla. Cuando te despiertas, te resulta rescatado por tus compañeros.</t>
-  </si>
-  <si>
     <t>魔镜</t>
   </si>
   <si>
@@ -636,21 +397,6 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
-    <t>entrance: un espejo reluciente comienza a reír inquietantemente mientras te acercas. Los aldeanos cercanos le dicen que es un portal que queda por los magos de los nefritos del Viejo Imperio. "Escondieron grandes tesoros dentro", agrega uno de ellos.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: necesita más recursos para comenzar a explorar esta área.
-encounter: Dentro del espejo encuentras copias e imitaciones de ti mismo y tus compañeros. No puedes decir quién es amigo o enemigo, ni real o conjurado.
-noDouzhi: Tu grupo perdió la moral y renunció a huir.
-empty: parece que no hay enemigos aquí.
-empty: parece que no hay enemigos aquí.
-BOSS: Entras en el reino final del espejo, una habitación con ocho paredes reflectantes. ¡De repente eres atacado por un mago y sus conjuraciones!
-BOSS_WIN: Derrotas al mago y las copias de ti mismo. Decides que has tenido suficiente confusión por un día y deja el reino reflexivo.
-BOSS_LOSE: pierdes el conocimiento en la batalla. Cuando te despiertas, te resulta rescatado por tus compañeros.
-NORMAL: ¡Eres atacado por varias brujas de Naga que están de guardia!
-NORMAL_WIN: derrotas a las brujas naga.\n\n{0}
-NORMAL_LOSE: pierdes el conocimiento en la batalla. Cuando te despiertas, te resulta rescatado por tus compañeros.</t>
-  </si>
-  <si>
     <t>红石城</t>
   </si>
   <si>
@@ -665,17 +411,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. El emblema de la Sociedad Ember brilla débilmente en las paredes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Redstone Keep puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián del santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>花卉乡</t>
   </si>
   <si>
@@ -690,17 +425,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. El emblema de un fénix brilla débilmente en las paredes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Fleur puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>半月山集市</t>
   </si>
   <si>
@@ -715,17 +439,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. El emblema de un dragón brilla débilmente en las paredes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Halfmoon Hills puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>雪岭镇</t>
   </si>
   <si>
@@ -740,17 +453,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado, cubierto para siempre de nieve. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Snowridge puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>冰谷</t>
   </si>
   <si>
@@ -765,17 +467,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Te sientes frío a tu hueso a medida que te acercas. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Frost Valley puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>沙风镇</t>
   </si>
   <si>
@@ -790,17 +481,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Las runas extrañas brillan débilmente en pilares de piedra. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Dunestorm puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>黑泥城</t>
   </si>
   <si>
@@ -815,17 +495,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Lightning y Thunder constantemente se enfurecen aquí. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Mireton puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>那古卡</t>
   </si>
   <si>
@@ -840,17 +509,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Poderosas energías mágicas se extienden en todo este lugar. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Nagukka puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>陶山镇</t>
   </si>
   <si>
@@ -865,17 +523,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Los pilares en la entrance están grabados con runas elaboradas. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Cotta Town puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>三石堡</t>
   </si>
   <si>
@@ -890,17 +537,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. El emblema de un centauro brilla débilmente en las paredes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Triptych Rock puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>紫木镇</t>
   </si>
   <si>
@@ -915,17 +551,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Las runas antiguas indescifrables brillan débilmente en las paredes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Amaranth Town puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>北风镇</t>
   </si>
   <si>
@@ -940,17 +565,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Los objetos antiguos de poder inimaginable están enterrados aquí. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Qebui Keep puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>苦泉镇</t>
   </si>
   <si>
@@ -965,17 +579,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Las tormentas de arena se enfurecen a su alrededor. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Diresprings puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>驼铃集市</t>
   </si>
   <si>
@@ -990,17 +593,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Poderosas energías mágicas se extienden en todo este lugar. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; del Bazaar de Camel Bell puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>黄金集市</t>
   </si>
   <si>
@@ -1015,17 +607,6 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. Los pilares en la entrance están grabados con runas brillantes y brillantes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Golden Bazaar puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
-  </si>
-  <si>
     <t>浅溪镇</t>
   </si>
   <si>
@@ -1040,15 +621,106 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance: un antiguo santuario que ha sido sellado. El emblema de una Bahar brilla débilmente en las paredes. Solo el &lt;Color = Red&gt; Sultan &lt;/ Color&gt; de Agadir puede pisar este lugar.
-cost: costará {0} adquirir los suministros necesarios para la exploración.
-noCost: No hay suficientes suministros para explorar.
-encounter: caminas a través de un misterioso pasaje antiguo. Las runas indescifrables se alinean cada pared.
-noDouzhi: Tu equipo está agotado y te ves obligado a irse.
-empty: no hay enemigos aquí.
-BOSS: ¡El guardián de este santuario aparece ante ti!
-BOSS_WIN: derrotas al guardián.\n\n{0}\n\nUsted se queda sin suministros y dejas este lugar.
-BOSS_LOSE: Eres noqueado en la batalla y te despiertas fuera del santuario.</t>
+    <t>entrada: Você encontra uma mina abandonada perto de Redstone Keep. Ferramentas quebradas estão espalhadas pelo chão. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: você vasculha as cavernas negras. Eles estão completamente silenciosos, exceto pelo vento frio que sopra constantemente em seus rostos. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O fogo ilumina a escuridão, e você vê o rosto selvagem de um mago entre as chamas bruxuleantes! BOSS_WIN: Você derrota Chakram Jahim, o mago, e encontra o saque. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você encontra bandidos! NORMAL_WIN: Os bandidos se dispersam. Continue sua busca e encontre alguns suprimentos.\n\n{0} NORMAL_LOSE: Você foge de sua vida ao som de uma risada sinistra.</t>
+  </si>
+  <si>
+    <t>entrada: Encontre uma oficina de cerâmica que remonta ao Antigo Império. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Pedaços de cerâmica quebrados estão espalhados pelo chão. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Um grupo de bandidos irá emboscar você atrás de algumas estátuas de argila! BOSS_WIN: Você derrota os bandidos e encontra itens. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você encontra bandidos! NORMAL_WIN: Você derrota os bandidos. Continue sua busca e encontre alguns suprimentos.\n\n{0} NORMAL_LOSE: você foge para salvar sua vida.</t>
+  </si>
+  <si>
+    <t>entrada: Esta é uma caverna usada pelo povo dos Penhascos Umbra como refúgio durante a Batalha do Sol Negro. Está abandonado há muito tempo. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: você caminha pela caverna. Você vê vários itens deixados pelos ocupantes anteriores. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Você é surpreendido pelos espíritos da natureza na caverna abandonada. BOSS_WIN: Você derrota os espíritos da natureza e encontra itens. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você encontra alguns javalis furiosos! NORMAL_WIN: Você derrota os javalis. Continue sua busca e encontre alguns suprimentos.\n\n{0} NORMAL_LOSE: você foge para salvar sua vida.</t>
+  </si>
+  <si>
+    <t>entrada: Você vê um vale isolado e nevado. Ervas medicinais podem ser encontradas aqui, mas Ifrit e Feras errantes mantêm a maioria das pessoas afastadas. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: você caminha pelo vale contra o vento uivante. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Risadas sinistras ecoam pela área. Você foi cercado por Ifrit! BOSS_WIN: Você derrota o Ifrit e encontra o saque. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você encontra alguns ursos marrons! NORMAL_WIN: Você derrota os ursos marrons. Continue sua busca e encontre alguns suprimentos.\n\n{0} NORMAL_LOSE: você foge para salvar sua vida.</t>
+  </si>
+  <si>
+    <t>entrada: você tropeça em uma caverna isolada. Aqui está um guerreiro vestido de Oryx, um clã exterminado durante a Batalha do Sol Negro. custo: o guerreiro o impede. Ele sugere um encontro de sobreviventes do Oryx lá dentro, mas permitirá que você passe por {0}. noCost: Você não tem o que o guerreiro deseja. Ele gesticula para você sair. encontro: Você ouve vozes baixas enquanto caminha pela caverna. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. BOSSMAP: Você vê a iluminação à frente. Deve ser a saída. CHEFE: O mago murmura encantamentos e se prepara para lançar um feitiço em você! BOSS_WIN: Você derrota Shedan, o Mago, e encontra itens. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você conhece os guerreiros Oryx! NORMAL_WIN: Você derrota os guerreiros Oryx. Continue sua busca e encontre alguns suprimentos.\n\n{0} NORMAL_LOSE: você foge da sua vida enquanto sons de risadas sinistras ecoam atrás de você.</t>
+  </si>
+  <si>
+    <t>Entrada: Um vale onde a feroz Gala se espalha durante todo o ano diante de você. Poucos homens são estúpidos o suficiente para prosseguir, e ainda menos cavalos. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você luta para avançar no vendaval violento. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O chão treme. É uma debandada de Centauros! BOSS_WIN: Você derrota os centauros.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você encontra algumas pítons. NORMAL_WIN: Você derrotou as pítons.\n\n{0} NORMAL_LOSE: Fuja do vale.</t>
+  </si>
+  <si>
+    <t>entrada: um círculo mágico, deixado por Dríades e Arbóreos. custo: custará {0} para ativar o círculo mágico. sem custo: Não há suprimentos suficientes para explorar. encontro: Você vagueia pela floresta, ouvindo as risadas das Dríades entre as árvores. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O chão treme. Você está cercado por árvores! BOSS_WIN: Você derrotou os espíritos da natureza.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você conhece fadas! NORMAL_WIN: Você derrota as fadas.\n\n{0} NORMAL_LOSE: Você foge para salvar sua vida.</t>
+  </si>
+  <si>
+    <t>entrada: uma caverna cárstica perto de Agadir, ocupada por bahars, víboras e lagartos venenosos. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você avança cuidadosamente pela caverna. Os únicos sons aqui são os ecos dos seus próprios passos e os sons de água pingando. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Lagartos venenosos bloqueiam seu caminho! BOSS_WIN: Você derrotou os lagartos.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você conhece Bahar! NORMAL_WIN: Você derrota o bahar.\n\n{0} NORMAL_LOSE: Ele sai da caverna.</t>
+  </si>
+  <si>
+    <t>entrada: uma caverna de gelo remota. Você encontra degraus gigantes fora da caverna. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: você explora a caverna congelada. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O chão treme. Você fica cara a cara com os gigantes! BOSS_WIN: Você derrota os gigantes.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você não é páreo para o inimigo e foge da sua vida. NORMAL: Você encontra algumas feras! NORMAL_WIN: Você derrota as feras.\n\n{0} NORMAL_LOSE: Você é forçado a recuar da caverna.</t>
+  </si>
+  <si>
+    <t>entrada: uma antiga caverna selada por um mago. Você sente o perigo por dentro. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: você avança pela caverna. Uma névoa começa a obstruir sua visão. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O chão treme. Você fica cara a cara com os gigantes que foram selados aqui! BOSS_WIN: Você derrota os gigantes.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você não está pronto para pisar aqui. Você sai da caverna. NORMAL: Você conhece Yetis! NORMAL_WIN: Você derrotou os Yetis.\n\n{0} NORMAL_LOSE: Não está pronto para pisar aqui. Você sai da caverna.</t>
+  </si>
+  <si>
+    <t>entrada: um palácio de árvores construído pelos espíritos da natureza. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você se move lentamente pelos caminhos das videiras. De tempos em tempos você pode ouvir os sussurros de Arborees e Dryads. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Os anciões das árvores bloqueiam seu caminho. Você está cercado pelos espíritos da natureza. BOSS_WIN: Você derrotou os anciões das árvores.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Melhor não incomodar mais os espíritos da natureza. Você sai do lugar. NORMAL: Você encontra Dríades! NORMAL_WIN: Você derrotou as Dríades.\n\n{0} NORMAL_LOSE: Melhor não incomodar mais os espíritos da natureza. Você sai do lugar.</t>
+  </si>
+  <si>
+    <t>entrada: Estudiosos de Jamal City encontraram ossos gigantes enquanto escavavam esta caverna misteriosa nos dias do Antigo Império. A queda do Antigo Império significou o fim de tais expedições. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. Encontro: Você explora a caverna e vê ossos gigantes com cores e padrões estranhos. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Depois de um clarão de luz ofuscante, você tem visões de gigantes atacando você! BOSS_WIN: Você derrotou os gigantes!\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você desmaia diante da visão aterrorizante e acorda do lado de fora da caverna. NORMAL: Você encontra um enxame de lagartos venenosos gigantes! NORMAL_WIN: Você derrota os lagartos venenosos.\n\n{0} NORMAL_LOSE: Você não é páreo para os escorpiões tóxicos e foge da caverna.</t>
+  </si>
+  <si>
+    <t>entrada: um enorme buraco que apareceu com o sol negro e o ifrit. Tudo o que você pode ver é lava estrondosa, com um caminho precário serpenteando. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Lava borbulha ao seu redor conforme você avança no caminho. O calor é insuportável; Parece que suas armas e armaduras podem pegar fogo a qualquer momento. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: Você ouve risadas sinistras ao seu redor e se vê cercado por guerreiros de elite. BOSS_WIN: Você derrota os guerreiros de elite Ifrit. BOSS_LOSE: Você não é forte o suficiente para continuar explorando e é forçado a recuar. NORMAL: Você encontra Guerreiros Ifrit! NORMAL_WIN: Você derrota os guerreiros Ifrit.\n\n{0} NORMAL_LOSE: Você não é forte o suficiente para continuar explorando e é forçado a recuar.</t>
+  </si>
+  <si>
+    <t>entrada: um portal para a casa dos Gigantes nas Montanhas Zagros. É atingido durante todo o ano por Ghel Wales, mas seu misterioso brilho mágico é inconfundível mesmo na nevasca. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha pelo antigo caminho de pedra, cercado por estranhos pilares de pedra. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O chão treme e os guardiões dos Gigantes aparecem diante de você! BOSS_WIN: Você derrotou os guardiões!\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora da formação rochosa. NORMAL: Você conhece gigantes! NORMAL_WIN: Você derrota os gigantes.\n\n{0} NORMAL_LOSE: Você é nocauteado na batalha e acorda fora da formação rochosa.</t>
+  </si>
+  <si>
+    <t>entrada: O tempo e o espaço estão distorcidos perto do portal Purple Arcana. Seus cavalos se recusam a prosseguir. Um poder sinistro deve ser contido. custo: custará {0} para adquirir os suprimentos necessários para a exploração. noCost: Você não tem recursos suficientes. encontro: você sente que está caminhando por outra dimensão. Rachaduras roxas aparecem no ar diante de você. noDouzhi: Fiesta perdeu o moral e desistiu de fugir. vazio: não há inimigos aqui. CHEFE: Você encontra um homem com braços gigantescos nas profundezas deste espaço. Ele olha para você com um sorriso travesso estampado no rosto! BOSS_WIN: Você derrotou a criatura, mas não tem certeza se ela era humana ou algum demônio de outro mundo! BOSS_LOSE: Você desmaiou durante a batalha. Você acorda e é resgatado por seus companheiros. NORMAL: Uma horda de demônios alados menores está correndo por uma das fendas! NORMAL_WIN: Você derrotou os demônios.\n\n{0} NORMAL_LOSE: Você desmaiou durante a batalha. Você acorda e o encontra resgatado por seus companheiros.</t>
+  </si>
+  <si>
+    <t>entrada: Esta estranha caverna está cheia de teias de aranha e ossos gigantes, mas os reflexos das joias brilhantes são mais que suficientes para atrair a maioria dos aventureiros. custo: você deve gastar {0} recursos se quiser explorar a área. noCost: Você não tem recursos suficientes para começar a explorar. Encontro: Você entra na caverna cheia de teias de aranha enquanto pisa em pilhas de moedas que foram cunhadas durante dinastias esquecidas. noDouzhi: Seu grupo perdeu o moral e desistiu de fugir. vazio: não há inimigos aqui. CHEFE: Uma aranha gigante, a guardiã desses tesouros, avança em sua direção enquanto seus companheiros sacam suas armas em defesa! BOSS_WIN: Você derrotou a aranha gigante.\n\n{0}\n\nVocê ficou sem recursos de exploração e saiu deste lugar. BOSS_LOSE: Você desmaiou durante a batalha. Você acorda e o encontra resgatado por seus companheiros. NORMAL: Você se encontra cercado por aranhas que brilham em roxo com Arcana! NORMAL_WIN: Você derrotou as aranhas e saiu com um renovado senso de urgência.\n\n{0} NORMAL_LOSE: Você desmaiou durante a batalha. Você acorda e o encontra resgatado por seus companheiros.</t>
+  </si>
+  <si>
+    <t>Entrada: Você sente um calor escaldante irradiando desta mina abandonada. Rumores dizem que a nefrita extraiu Jade aqui, mas abandonou a operação quando um ninho de víboras tomou conta dos túneis. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: você precisa de mais recursos para começar a explorar esta área. encontro: você avança encharcado de suor. O assobio incessante das víboras provoca arrepios na espinha. noDouzhi: Seu grupo perdeu o moral e desistiu de fugir. vazio: Parece não haver inimigos aqui. CHEFE: Você chegou à seção mais profunda da mina, apenas para encontrar uma víbora gigante guardando uma pilha de jade precioso. O único caminho a seguir é pavimentado em Snake Blood! BOSS_WIN: Você derrotou a cobra gigante, reivindicou seu jade e saiu o mais rápido possível. BOSS_LOSE: Você perde a consciência do veneno. Ao acordar, você é resgatado por seus companheiros. NORMAL: De repente você é atacado por diversas cobras gigantes! NORMAL_WIN: Você derrota as cobras gigantes.\n\n{0} NORMAL_LOSE: Você perde a consciência na batalha. Ao acordar, você é resgatado por seus companheiros.</t>
+  </si>
+  <si>
+    <t>Entrada: Um espelho brilhante começa a rir estranhamente conforme você se aproxima. Os aldeões próximos dizem a ele que se trata de um portal deixado pelos magos nefritas do Antigo Império. “Eles esconderam grandes tesouros lá dentro”, acrescenta um deles. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: você precisa de mais recursos para começar a explorar esta área. encontro: Dentro do espelho você encontra cópias e imitações suas e de seus companheiros. Você não pode dizer quem é amigo ou inimigo, real ou conspirado. noDouzhi: Seu grupo perdeu o moral e desistiu de fugir. vazio: Parece não haver inimigos aqui. vazio: Parece não haver inimigos aqui. CHEFE: Você entra no reino dos espelhos final, uma sala com oito paredes reflexivas. De repente você é atacado por um mágico e suas conspirações! BOSS_WIN: Você derrota o mago e faz cópias de si mesmo. Você decide que já teve confusão suficiente por um dia e deixa o reino reflexivo. BOSS_LOSE: Você perde a consciência na batalha. Ao acordar, você é resgatado por seus companheiros. NORMAL: Você é atacado por várias bruxas Naga que estão de guarda! NORMAL_WIN: Você derrota as bruxas naga.\n\n{0} NORMAL_LOSE: Você perde a consciência na batalha. Ao acordar, você é resgatado por seus companheiros.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. O emblema da Ember Society brilha fracamente nas paredes. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; de Redstone Keep pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião do santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. O emblema de uma fênix brilha fracamente nas paredes. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; de Fleur pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. O emblema de um dragão brilha fracamente nas paredes. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; de Halfmoon Hills pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado, coberto para sempre de neve. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; de Snowridge pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Você sente frio até os ossos conforme se aproxima. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; do Vale Congelado pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Runas estranhas brilham fracamente em pilares de pedra. Somente o &lt;Color = Red&gt; Sultão &lt;/ Color&gt; de Dunestorm pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Relâmpagos e trovões assolam constantemente aqui. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; de Mireton pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Poderosas energias mágicas espalhadas por este lugar. Somente o &lt;Color=Red&gt;Sultão &lt;/Color&gt; de Nagukka pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Os pilares da entrada estão gravados com runas elaboradas. Somente o &lt;Color=Red&gt; Sultão &lt;/Color&gt; da cidade de Cotta pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. O emblema de um centauro brilha fracamente nas paredes. Somente o Sultão &lt;Color = Red&gt; &lt;/ Color&gt; do Triptych Rock pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Runas antigas indecifráveis brilham fracamente nas paredes. Somente o &lt;Color=Red&gt; Sultão &lt;/Color&gt; da cidade de Amaranth pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Objetos antigos de poder inimaginável estão enterrados aqui. Somente o &lt;Color=Red&gt; Sultão &lt;/Color&gt; do Forte Qebui pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Tempestades de areia assolam ao seu redor. Somente o &lt;Color=Red&gt; Sultão &lt;/Color&gt; de Diresprings pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Poderosas energias mágicas espalhadas por este lugar. Somente o &lt;Color = Red&gt; Sultan &lt;/ Color&gt; do Camel Bell Bazaar pode pisar aqui. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. Os pilares da entrada estão gravados com runas brilhantes e brilhantes. Somente o &lt;Color=Red&gt; Sultão &lt;/Color&gt; do Golden Bazaar pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
+  </si>
+  <si>
+    <t>entrada: um antigo santuário que foi selado. O emblema de um Bahar brilha fracamente nas paredes. Somente o &lt;Color = Red&gt; Sultão &lt;/ Color&gt; de Agadir pode pisar neste lugar. custo: custará {0} para adquirir os suprimentos necessários para a exploração. sem custo: Não há suprimentos suficientes para explorar. encontro: Você caminha por uma misteriosa passagem antiga. Runas indecifráveis revestem todas as paredes. noDouzhi: Sua equipe está exausta e você é forçado a sair. vazio: não há inimigos aqui. CHEFE: O guardião deste santuário aparece diante de você! BOSS_WIN: Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e sai deste lugar. BOSS_LOSE: Você é nocauteado em batalha e acorda fora do santuário.</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,11 +1062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
@@ -1422,367 +1094,367 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="256.5">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="243">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="256.5">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="256.5">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="243">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="337.5">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="229.5">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="243">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="216">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="243">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="243">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="243">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="256.5">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="256.5">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="270">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="270">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="283.5">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="283.5">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="256.5">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="270">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="202.5">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>104</v>
